--- a/Cleaned/outputedited/editednextdirectionsdata.xlsx
+++ b/Cleaned/outputedited/editednextdirectionsdata.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24380" windowHeight="23920" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="23920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="editednextdirectionsdata.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>participant</t>
   </si>
@@ -83,12 +85,63 @@
   <si>
     <t>Sums</t>
   </si>
+  <si>
+    <t>current_v</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>current_t</t>
+  </si>
+  <si>
+    <t>current_p</t>
+  </si>
+  <si>
+    <t>current_b</t>
+  </si>
+  <si>
+    <t>v_exp</t>
+  </si>
+  <si>
+    <t>t_exp</t>
+  </si>
+  <si>
+    <t>b_exp</t>
+  </si>
+  <si>
+    <t>p_exp</t>
+  </si>
+  <si>
+    <t>(E-O)^2/E</t>
+  </si>
+  <si>
+    <t>E_vv</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,13 +172,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Geneva"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,7 +207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -249,12 +319,177 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="273">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -310,6 +545,87 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -365,6 +681,87 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N97" sqref="N97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3432,19 +3829,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N91" si="12">N3/SUM(N3:Q3)</f>
+        <f t="shared" ref="N51:N64" si="12">N3/SUM(N3:Q3)</f>
         <v>0.25</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O91" si="13">O3/SUM(N3:Q3)</f>
+        <f t="shared" ref="O51:O64" si="13">O3/SUM(N3:Q3)</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" ref="P51:P91" si="14">P3/SUM(N3:Q3)</f>
+        <f t="shared" ref="P51:P64" si="14">P3/SUM(N3:Q3)</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" ref="Q51:Q91" si="15">Q3/SUM(N3:Q3)</f>
+        <f t="shared" ref="Q51:Q64" si="15">Q3/SUM(N3:Q3)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -3798,35 +4195,35 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <f>B10/SUM(B10:E10)</f>
+        <f t="shared" ref="B57:B90" si="16">B10/SUM(B10:E10)</f>
         <v>0.25</v>
       </c>
       <c r="C57">
-        <f>C10/SUM(B10:E10)</f>
+        <f t="shared" ref="C57:C90" si="17">C10/SUM(B10:E10)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f>D10/SUM(B10:E10)</f>
+        <f t="shared" ref="D57:D90" si="18">D10/SUM(B10:E10)</f>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>E10/SUM(B10:E10)</f>
+        <f t="shared" ref="E57:E90" si="19">E10/SUM(B10:E10)</f>
         <v>0.75</v>
       </c>
       <c r="F57">
-        <f>F14/SUM(F14:I14)</f>
+        <f t="shared" ref="F57:F62" si="20">F14/SUM(F14:I14)</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>G14/SUM(F14:I14)</f>
+        <f t="shared" ref="G57:G62" si="21">G14/SUM(F14:I14)</f>
         <v>0</v>
       </c>
       <c r="H57">
-        <f>H14/SUM(F14:I14)</f>
+        <f t="shared" ref="H57:H62" si="22">H14/SUM(F14:I14)</f>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>I14/SUM(F14:I14)</f>
+        <f t="shared" ref="I57:I62" si="23">I14/SUM(F14:I14)</f>
         <v>1</v>
       </c>
       <c r="J57">
@@ -3867,35 +4264,35 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <f>B11/SUM(B11:E11)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C58">
-        <f>C11/SUM(B11:E11)</f>
+        <f t="shared" si="17"/>
         <v>0.375</v>
       </c>
       <c r="D58">
-        <f>D11/SUM(B11:E11)</f>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E58">
-        <f>E11/SUM(B11:E11)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="F58">
-        <f>F15/SUM(F15:I15)</f>
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G58">
-        <f>G15/SUM(F15:I15)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H58">
-        <f>H15/SUM(F15:I15)</f>
+        <f t="shared" si="22"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I58">
-        <f>I15/SUM(F15:I15)</f>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="J58">
@@ -3936,35 +4333,35 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <f>B12/SUM(B12:E12)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C59">
-        <f>C12/SUM(B12:E12)</f>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="D59">
-        <f>D12/SUM(B12:E12)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>E12/SUM(B12:E12)</f>
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="F59">
-        <f>F16/SUM(F16:I16)</f>
+        <f t="shared" si="20"/>
         <v>0.25</v>
       </c>
       <c r="G59">
-        <f>G16/SUM(F16:I16)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f>H16/SUM(F16:I16)</f>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="I59">
-        <f>I16/SUM(F16:I16)</f>
+        <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
       <c r="J59">
@@ -4005,35 +4402,35 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <f>B13/SUM(B13:E13)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C60">
-        <f>C13/SUM(B13:E13)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D60">
-        <f>D13/SUM(B13:E13)</f>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="E60">
-        <f>E13/SUM(B13:E13)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="F60">
-        <f>F17/SUM(F17:I17)</f>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="G60">
-        <f>G17/SUM(F17:I17)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H60">
-        <f>H17/SUM(F17:I17)</f>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="I60">
-        <f>I17/SUM(F17:I17)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -4074,35 +4471,35 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <f>B14/SUM(B14:E14)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C61">
-        <f>C14/SUM(B14:E14)</f>
+        <f t="shared" si="17"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D61">
-        <f>D14/SUM(B14:E14)</f>
+        <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E61">
-        <f>E14/SUM(B14:E14)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="F61">
-        <f>F18/SUM(F18:I18)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G61">
-        <f>G18/SUM(F18:I18)</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="H61">
-        <f>H18/SUM(F18:I18)</f>
+        <f t="shared" si="22"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I61">
-        <f>I18/SUM(F18:I18)</f>
+        <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J61">
@@ -4143,35 +4540,35 @@
         <v>13</v>
       </c>
       <c r="B62">
-        <f>B15/SUM(B15:E15)</f>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
       <c r="C62">
-        <f>C15/SUM(B15:E15)</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D62">
-        <f>D15/SUM(B15:E15)</f>
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
       <c r="E62">
-        <f>E15/SUM(B15:E15)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>F19/SUM(F19:I19)</f>
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G62">
-        <f>G19/SUM(F19:I19)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>H19/SUM(F19:I19)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>I19/SUM(F19:I19)</f>
+        <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J62">
@@ -4212,19 +4609,19 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <f>B16/SUM(B16:E16)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C63">
-        <f>C16/SUM(B16:E16)</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D63">
-        <f>D16/SUM(B16:E16)</f>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E63">
-        <f>E16/SUM(B16:E16)</f>
+        <f t="shared" si="19"/>
         <v>0.375</v>
       </c>
       <c r="F63">
@@ -4281,19 +4678,19 @@
         <v>15</v>
       </c>
       <c r="B64">
-        <f>B17/SUM(B17:E17)</f>
+        <f t="shared" si="16"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="C64">
-        <f>C17/SUM(B17:E17)</f>
+        <f t="shared" si="17"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D64">
-        <f>D17/SUM(B17:E17)</f>
+        <f t="shared" si="18"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="E64">
-        <f>E17/SUM(B17:E17)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -4350,19 +4747,19 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <f>B18/SUM(B18:E18)</f>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C65">
-        <f>C18/SUM(B18:E18)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D65">
-        <f>D18/SUM(B18:E18)</f>
+        <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E65">
-        <f>E18/SUM(B18:E18)</f>
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F65">
@@ -4398,19 +4795,19 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f>N18/SUM(N18:Q18)</f>
+        <f t="shared" ref="N65:N90" si="24">N18/SUM(N18:Q18)</f>
         <v>0.4</v>
       </c>
       <c r="O65">
-        <f>O18/SUM(N18:Q18)</f>
+        <f t="shared" ref="O65:O90" si="25">O18/SUM(N18:Q18)</f>
         <v>0.4</v>
       </c>
       <c r="P65">
-        <f>P18/SUM(N18:Q18)</f>
+        <f t="shared" ref="P65:P90" si="26">P18/SUM(N18:Q18)</f>
         <v>0.2</v>
       </c>
       <c r="Q65">
-        <f>Q18/SUM(N18:Q18)</f>
+        <f t="shared" ref="Q65:Q90" si="27">Q18/SUM(N18:Q18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4419,19 +4816,19 @@
         <v>17</v>
       </c>
       <c r="B66">
-        <f>B19/SUM(B19:E19)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f>C19/SUM(B19:E19)</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D66">
-        <f>D19/SUM(B19:E19)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>E19/SUM(B19:E19)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="F66">
@@ -4467,19 +4864,19 @@
         <v>0.2</v>
       </c>
       <c r="N66">
-        <f>N19/SUM(N19:Q19)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f>O19/SUM(N19:Q19)</f>
+        <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
       <c r="P66">
-        <f>P19/SUM(N19:Q19)</f>
+        <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
       <c r="Q66">
-        <f>Q19/SUM(N19:Q19)</f>
+        <f t="shared" si="27"/>
         <v>0.625</v>
       </c>
     </row>
@@ -4488,35 +4885,35 @@
         <v>18</v>
       </c>
       <c r="B67">
-        <f>B20/SUM(B20:E20)</f>
+        <f t="shared" si="16"/>
         <v>0.625</v>
       </c>
       <c r="C67">
-        <f>C20/SUM(B20:E20)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D67">
-        <f>D20/SUM(B20:E20)</f>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E67">
-        <f>E20/SUM(B20:E20)</f>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="F67">
-        <f>F27/SUM(F27:I27)</f>
+        <f t="shared" ref="F67:F84" si="28">F27/SUM(F27:I27)</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>G27/SUM(F27:I27)</f>
+        <f t="shared" ref="G67:G84" si="29">G27/SUM(F27:I27)</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f>H27/SUM(F27:I27)</f>
+        <f t="shared" ref="H67:H84" si="30">H27/SUM(F27:I27)</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f>I27/SUM(F27:I27)</f>
+        <f t="shared" ref="I67:I84" si="31">I27/SUM(F27:I27)</f>
         <v>1</v>
       </c>
       <c r="J67">
@@ -4536,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f>N20/SUM(N20:Q20)</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="O67">
-        <f>O20/SUM(N20:Q20)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f>P20/SUM(N20:Q20)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f>Q20/SUM(N20:Q20)</f>
+        <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4557,35 +4954,35 @@
         <v>19</v>
       </c>
       <c r="B68">
-        <f>B21/SUM(B21:E21)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>C21/SUM(B21:E21)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>D21/SUM(B21:E21)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f>E21/SUM(B21:E21)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>F28/SUM(F28:I28)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f>G28/SUM(F28:I28)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>H28/SUM(F28:I28)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>I28/SUM(F28:I28)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -4605,19 +5002,19 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <f>N21/SUM(N21:Q21)</f>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="O68">
-        <f>O21/SUM(N21:Q21)</f>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="P68">
-        <f>P21/SUM(N21:Q21)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f>Q21/SUM(N21:Q21)</f>
+        <f t="shared" si="27"/>
         <v>0.6</v>
       </c>
     </row>
@@ -4626,35 +5023,35 @@
         <v>20</v>
       </c>
       <c r="B69">
-        <f>B22/SUM(B22:E22)</f>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="C69">
-        <f>C22/SUM(B22:E22)</f>
+        <f t="shared" si="17"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D69">
-        <f>D22/SUM(B22:E22)</f>
+        <f t="shared" si="18"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="E69">
-        <f>E22/SUM(B22:E22)</f>
+        <f t="shared" si="19"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="F69">
-        <f>F29/SUM(F29:I29)</f>
+        <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G69">
-        <f>G29/SUM(F29:I29)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f>H29/SUM(F29:I29)</f>
+        <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I69">
-        <f>I29/SUM(F29:I29)</f>
+        <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J69">
@@ -4674,19 +5071,19 @@
         <v>0.6</v>
       </c>
       <c r="N69">
-        <f>N22/SUM(N22:Q22)</f>
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
       <c r="O69">
-        <f>O22/SUM(N22:Q22)</f>
+        <f t="shared" si="25"/>
         <v>0.125</v>
       </c>
       <c r="P69">
-        <f>P22/SUM(N22:Q22)</f>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Q69">
-        <f>Q22/SUM(N22:Q22)</f>
+        <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4695,35 +5092,35 @@
         <v>21</v>
       </c>
       <c r="B70">
-        <f>B23/SUM(B23:E23)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>C23/SUM(B23:E23)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f>D23/SUM(B23:E23)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>E23/SUM(B23:E23)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F70">
-        <f>F30/SUM(F30:I30)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G70">
-        <f>G30/SUM(F30:I30)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>H30/SUM(F30:I30)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>I30/SUM(F30:I30)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -4743,19 +5140,19 @@
         <v>0.25</v>
       </c>
       <c r="N70">
-        <f>N23/SUM(N23:Q23)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f>O23/SUM(N23:Q23)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f>P23/SUM(N23:Q23)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f>Q23/SUM(N23:Q23)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -4764,35 +5161,35 @@
         <v>22</v>
       </c>
       <c r="B71">
-        <f>B24/SUM(B24:E24)</f>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="C71">
-        <f>C24/SUM(B24:E24)</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="D71">
-        <f>D24/SUM(B24:E24)</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="E71">
-        <f>E24/SUM(B24:E24)</f>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="F71">
-        <f>F31/SUM(F31:I31)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f>G31/SUM(F31:I31)</f>
+        <f t="shared" si="29"/>
         <v>0.5</v>
       </c>
       <c r="H71">
-        <f>H31/SUM(F31:I31)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>I31/SUM(F31:I31)</f>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="J71">
@@ -4812,19 +5209,19 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f>N24/SUM(N24:Q24)</f>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="O71">
-        <f>O24/SUM(N24:Q24)</f>
+        <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
       <c r="P71">
-        <f>P24/SUM(N24:Q24)</f>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Q71">
-        <f>Q24/SUM(N24:Q24)</f>
+        <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4833,35 +5230,35 @@
         <v>23</v>
       </c>
       <c r="B72">
-        <f>B25/SUM(B25:E25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C72">
-        <f>C25/SUM(B25:E25)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D72">
-        <f>D25/SUM(B25:E25)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>E25/SUM(B25:E25)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F72">
-        <f>F32/SUM(F32:I32)</f>
+        <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G72">
-        <f>G32/SUM(F32:I32)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f>H32/SUM(F32:I32)</f>
+        <f t="shared" si="30"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I72">
-        <f>I32/SUM(F32:I32)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -4881,19 +5278,19 @@
         <v>0.2</v>
       </c>
       <c r="N72">
-        <f>N25/SUM(N25:Q25)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f>O25/SUM(N25:Q25)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f>P25/SUM(N25:Q25)</f>
+        <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
       <c r="Q72">
-        <f>Q25/SUM(N25:Q25)</f>
+        <f t="shared" si="27"/>
         <v>0.875</v>
       </c>
     </row>
@@ -4902,35 +5299,35 @@
         <v>24</v>
       </c>
       <c r="B73">
-        <f>B26/SUM(B26:E26)</f>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C73">
-        <f>C26/SUM(B26:E26)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f>D26/SUM(B26:E26)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>E26/SUM(B26:E26)</f>
+        <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F73">
-        <f>F33/SUM(F33:I33)</f>
+        <f t="shared" si="28"/>
         <v>0.25</v>
       </c>
       <c r="G73">
-        <f>G33/SUM(F33:I33)</f>
+        <f t="shared" si="29"/>
         <v>0.125</v>
       </c>
       <c r="H73">
-        <f>H33/SUM(F33:I33)</f>
+        <f t="shared" si="30"/>
         <v>0.625</v>
       </c>
       <c r="I73">
-        <f>I33/SUM(F33:I33)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J73">
@@ -4950,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f>N26/SUM(N26:Q26)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f>O26/SUM(N26:Q26)</f>
+        <f t="shared" si="25"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="P73">
-        <f>P26/SUM(N26:Q26)</f>
+        <f t="shared" si="26"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="Q73">
-        <f>Q26/SUM(N26:Q26)</f>
+        <f t="shared" si="27"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -4971,35 +5368,35 @@
         <v>25</v>
       </c>
       <c r="B74">
-        <f>B27/SUM(B27:E27)</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="C74">
-        <f>C27/SUM(B27:E27)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f>D27/SUM(B27:E27)</f>
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
       <c r="E74">
-        <f>E27/SUM(B27:E27)</f>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="F74">
-        <f>F34/SUM(F34:I34)</f>
+        <f t="shared" si="28"/>
         <v>0.25</v>
       </c>
       <c r="G74">
-        <f>G34/SUM(F34:I34)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f>H34/SUM(F34:I34)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>I34/SUM(F34:I34)</f>
+        <f t="shared" si="31"/>
         <v>0.75</v>
       </c>
       <c r="J74">
@@ -5019,19 +5416,19 @@
         <v>0.25</v>
       </c>
       <c r="N74">
-        <f>N27/SUM(N27:Q27)</f>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="O74">
-        <f>O27/SUM(N27:Q27)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f>P27/SUM(N27:Q27)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f>Q27/SUM(N27:Q27)</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5040,35 +5437,35 @@
         <v>26</v>
       </c>
       <c r="B75">
-        <f>B28/SUM(B28:E28)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C75">
-        <f>C28/SUM(B28:E28)</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D75">
-        <f>D28/SUM(B28:E28)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>E28/SUM(B28:E28)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="F75">
-        <f>F35/SUM(F35:I35)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G75">
-        <f>G35/SUM(F35:I35)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f>H35/SUM(F35:I35)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>I35/SUM(F35:I35)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -5088,19 +5485,19 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <f>N28/SUM(N28:Q28)</f>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="O75">
-        <f>O28/SUM(N28:Q28)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f>P28/SUM(N28:Q28)</f>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Q75">
-        <f>Q28/SUM(N28:Q28)</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5109,35 +5506,35 @@
         <v>28</v>
       </c>
       <c r="B76">
-        <f>B29/SUM(B29:E29)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>C29/SUM(B29:E29)</f>
+        <f t="shared" si="17"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="D76">
-        <f>D29/SUM(B29:E29)</f>
+        <f t="shared" si="18"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="E76">
-        <f>E29/SUM(B29:E29)</f>
+        <f t="shared" si="19"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="F76">
-        <f>F36/SUM(F36:I36)</f>
+        <f t="shared" si="28"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="G76">
-        <f>G36/SUM(F36:I36)</f>
+        <f t="shared" si="29"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="H76">
-        <f>H36/SUM(F36:I36)</f>
+        <f t="shared" si="30"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I76">
-        <f>I36/SUM(F36:I36)</f>
+        <f t="shared" si="31"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="J76">
@@ -5157,19 +5554,19 @@
         <v>0.2</v>
       </c>
       <c r="N76">
-        <f>N29/SUM(N29:Q29)</f>
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
       <c r="O76">
-        <f>O29/SUM(N29:Q29)</f>
+        <f t="shared" si="25"/>
         <v>0.125</v>
       </c>
       <c r="P76">
-        <f>P29/SUM(N29:Q29)</f>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Q76">
-        <f>Q29/SUM(N29:Q29)</f>
+        <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5178,35 +5575,35 @@
         <v>29</v>
       </c>
       <c r="B77">
-        <f>B30/SUM(B30:E30)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C77">
-        <f>C30/SUM(B30:E30)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f>D30/SUM(B30:E30)</f>
+        <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E77">
-        <f>E30/SUM(B30:E30)</f>
+        <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F77">
-        <f>F37/SUM(F37:I37)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f>G37/SUM(F37:I37)</f>
+        <f t="shared" si="29"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H77">
-        <f>H37/SUM(F37:I37)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I77">
-        <f>I37/SUM(F37:I37)</f>
+        <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J77">
@@ -5226,19 +5623,19 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="N77">
-        <f>N30/SUM(N30:Q30)</f>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="O77">
-        <f>O30/SUM(N30:Q30)</f>
+        <f t="shared" si="25"/>
         <v>0.125</v>
       </c>
       <c r="P77">
-        <f>P30/SUM(N30:Q30)</f>
+        <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
       <c r="Q77">
-        <f>Q30/SUM(N30:Q30)</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5247,35 +5644,35 @@
         <v>30</v>
       </c>
       <c r="B78">
-        <f>B31/SUM(B31:E31)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C78">
-        <f>C31/SUM(B31:E31)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D78">
-        <f>D31/SUM(B31:E31)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f>E31/SUM(B31:E31)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F78">
-        <f>F38/SUM(F38:I38)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f>G38/SUM(F38:I38)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f>H38/SUM(F38:I38)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I78">
-        <f>I38/SUM(F38:I38)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -5295,19 +5692,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N78">
-        <f>N31/SUM(N31:Q31)</f>
+        <f t="shared" si="24"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="O78">
-        <f>O31/SUM(N31:Q31)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f>P31/SUM(N31:Q31)</f>
+        <f t="shared" si="26"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q78">
-        <f>Q31/SUM(N31:Q31)</f>
+        <f t="shared" si="27"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -5316,35 +5713,35 @@
         <v>31</v>
       </c>
       <c r="B79">
-        <f>B32/SUM(B32:E32)</f>
+        <f t="shared" si="16"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="C79">
-        <f>C32/SUM(B32:E32)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D79">
-        <f>D32/SUM(B32:E32)</f>
+        <f t="shared" si="18"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E79">
-        <f>E32/SUM(B32:E32)</f>
+        <f t="shared" si="19"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="F79">
-        <f>F39/SUM(F39:I39)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G79">
-        <f>G39/SUM(F39:I39)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f>H39/SUM(F39:I39)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f>I39/SUM(F39:I39)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -5364,19 +5761,19 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <f>N32/SUM(N32:Q32)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f>O32/SUM(N32:Q32)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="P79">
-        <f>P32/SUM(N32:Q32)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f>Q32/SUM(N32:Q32)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -5385,35 +5782,35 @@
         <v>32</v>
       </c>
       <c r="B80">
-        <f>B33/SUM(B33:E33)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C80">
-        <f>C33/SUM(B33:E33)</f>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D80">
-        <f>D33/SUM(B33:E33)</f>
+        <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E80">
-        <f>E33/SUM(B33:E33)</f>
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F80">
-        <f>F40/SUM(F40:I40)</f>
+        <f t="shared" si="28"/>
         <v>0.625</v>
       </c>
       <c r="G80">
-        <f>G40/SUM(F40:I40)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f>H40/SUM(F40:I40)</f>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="I80">
-        <f>I40/SUM(F40:I40)</f>
+        <f t="shared" si="31"/>
         <v>0.125</v>
       </c>
       <c r="J80">
@@ -5433,19 +5830,19 @@
         <v>0.25</v>
       </c>
       <c r="N80">
-        <f>N33/SUM(N33:Q33)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f>O33/SUM(N33:Q33)</f>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P80">
-        <f>P33/SUM(N33:Q33)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f>Q33/SUM(N33:Q33)</f>
+        <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5454,35 +5851,35 @@
         <v>33</v>
       </c>
       <c r="B81">
-        <f>B34/SUM(B34:E34)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C81">
-        <f>C34/SUM(B34:E34)</f>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="D81">
-        <f>D34/SUM(B34:E34)</f>
+        <f t="shared" si="18"/>
         <v>0.375</v>
       </c>
       <c r="E81">
-        <f>E34/SUM(B34:E34)</f>
+        <f t="shared" si="19"/>
         <v>0.375</v>
       </c>
       <c r="F81">
-        <f>F41/SUM(F41:I41)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f>G41/SUM(F41:I41)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f>H41/SUM(F41:I41)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f>I41/SUM(F41:I41)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J81">
@@ -5502,19 +5899,19 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="N81">
-        <f>N34/SUM(N34:Q34)</f>
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
       <c r="O81">
-        <f>O34/SUM(N34:Q34)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f>P34/SUM(N34:Q34)</f>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="Q81">
-        <f>Q34/SUM(N34:Q34)</f>
+        <f t="shared" si="27"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5523,35 +5920,35 @@
         <v>34</v>
       </c>
       <c r="B82">
-        <f>B35/SUM(B35:E35)</f>
+        <f t="shared" si="16"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="C82">
-        <f>C35/SUM(B35:E35)</f>
+        <f t="shared" si="17"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D82">
-        <f>D35/SUM(B35:E35)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f>E35/SUM(B35:E35)</f>
+        <f t="shared" si="19"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="F82">
-        <f>F42/SUM(F42:I42)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G82">
-        <f>G42/SUM(F42:I42)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f>H42/SUM(F42:I42)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I82">
-        <f>I42/SUM(F42:I42)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J82">
@@ -5571,19 +5968,19 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="N82">
-        <f>N35/SUM(N35:Q35)</f>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="O82">
-        <f>O35/SUM(N35:Q35)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f>P35/SUM(N35:Q35)</f>
+        <f t="shared" si="26"/>
         <v>0.6</v>
       </c>
       <c r="Q82">
-        <f>Q35/SUM(N35:Q35)</f>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
     </row>
@@ -5592,35 +5989,35 @@
         <v>35</v>
       </c>
       <c r="B83">
-        <f>B36/SUM(B36:E36)</f>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="C83">
-        <f>C36/SUM(B36:E36)</f>
+        <f t="shared" si="17"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D83">
-        <f>D36/SUM(B36:E36)</f>
+        <f t="shared" si="18"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="E83">
-        <f>E36/SUM(B36:E36)</f>
+        <f t="shared" si="19"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="F83">
-        <f>F43/SUM(F43:I43)</f>
+        <f t="shared" si="28"/>
         <v>0.125</v>
       </c>
       <c r="G83">
-        <f>G43/SUM(F43:I43)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f>H43/SUM(F43:I43)</f>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
       <c r="I83">
-        <f>I43/SUM(F43:I43)</f>
+        <f t="shared" si="31"/>
         <v>0.375</v>
       </c>
       <c r="J83">
@@ -5640,19 +6037,19 @@
         <v>0.25</v>
       </c>
       <c r="N83">
-        <f>N36/SUM(N36:Q36)</f>
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
       <c r="O83">
-        <f>O36/SUM(N36:Q36)</f>
+        <f t="shared" si="25"/>
         <v>0.375</v>
       </c>
       <c r="P83">
-        <f>P36/SUM(N36:Q36)</f>
+        <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
       <c r="Q83">
-        <f>Q36/SUM(N36:Q36)</f>
+        <f t="shared" si="27"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5661,35 +6058,35 @@
         <v>36</v>
       </c>
       <c r="B84">
-        <f>B37/SUM(B37:E37)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C84">
-        <f>C37/SUM(B37:E37)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f>D37/SUM(B37:E37)</f>
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
       <c r="E84">
-        <f>E37/SUM(B37:E37)</f>
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="F84">
-        <f>F44/SUM(F44:I44)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f>G44/SUM(F44:I44)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f>H44/SUM(F44:I44)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f>I44/SUM(F44:I44)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J84">
@@ -5709,19 +6106,19 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="N84">
-        <f>N37/SUM(N37:Q37)</f>
+        <f t="shared" si="24"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="O84">
-        <f>O37/SUM(N37:Q37)</f>
+        <f t="shared" si="25"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="P84">
-        <f>P37/SUM(N37:Q37)</f>
+        <f t="shared" si="26"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Q84">
-        <f>Q37/SUM(N37:Q37)</f>
+        <f t="shared" si="27"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -5730,19 +6127,19 @@
         <v>37</v>
       </c>
       <c r="B85">
-        <f>B38/SUM(B38:E38)</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="C85">
-        <f>C38/SUM(B38:E38)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f>D38/SUM(B38:E38)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f>E38/SUM(B38:E38)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="J85">
@@ -5762,19 +6159,19 @@
         <v>0.25</v>
       </c>
       <c r="N85">
-        <f>N38/SUM(N38:Q38)</f>
+        <f t="shared" si="24"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O85">
-        <f>O38/SUM(N38:Q38)</f>
+        <f t="shared" si="25"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P85">
-        <f>P38/SUM(N38:Q38)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f>Q38/SUM(N38:Q38)</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5783,19 +6180,19 @@
         <v>38</v>
       </c>
       <c r="B86">
-        <f>B39/SUM(B39:E39)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C86">
-        <f>C39/SUM(B39:E39)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f>D39/SUM(B39:E39)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E86">
-        <f>E39/SUM(B39:E39)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -5815,19 +6212,19 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <f>N39/SUM(N39:Q39)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f>O39/SUM(N39:Q39)</f>
+        <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
       <c r="P86">
-        <f>P39/SUM(N39:Q39)</f>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="Q86">
-        <f>Q39/SUM(N39:Q39)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -5836,19 +6233,19 @@
         <v>39</v>
       </c>
       <c r="B87">
-        <f>B40/SUM(B40:E40)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C87">
-        <f>C40/SUM(B40:E40)</f>
+        <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
       <c r="D87">
-        <f>D40/SUM(B40:E40)</f>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E87">
-        <f>E40/SUM(B40:E40)</f>
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="J87">
@@ -5868,19 +6265,19 @@
         <v>0.5</v>
       </c>
       <c r="N87">
-        <f>N40/SUM(N40:Q40)</f>
+        <f t="shared" si="24"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="O87">
-        <f>O40/SUM(N40:Q40)</f>
+        <f t="shared" si="25"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="P87">
-        <f>P40/SUM(N40:Q40)</f>
+        <f t="shared" si="26"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="Q87">
-        <f>Q40/SUM(N40:Q40)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -5889,19 +6286,19 @@
         <v>40</v>
       </c>
       <c r="B88">
-        <f>B41/SUM(B41:E41)</f>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="C88">
-        <f>C41/SUM(B41:E41)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D88">
-        <f>D41/SUM(B41:E41)</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="E88">
-        <f>E41/SUM(B41:E41)</f>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="J88">
@@ -5921,19 +6318,19 @@
         <v>0.125</v>
       </c>
       <c r="N88">
-        <f>N41/SUM(N41:Q41)</f>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="O88">
-        <f>O41/SUM(N41:Q41)</f>
+        <f t="shared" si="25"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P88">
-        <f>P41/SUM(N41:Q41)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q88">
-        <f>Q41/SUM(N41:Q41)</f>
+        <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5942,19 +6339,19 @@
         <v>41</v>
       </c>
       <c r="B89">
-        <f>B42/SUM(B42:E42)</f>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="C89">
-        <f>C42/SUM(B42:E42)</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="D89">
-        <f>D42/SUM(B42:E42)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f>E42/SUM(B42:E42)</f>
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
       <c r="J89">
@@ -5974,19 +6371,19 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <f>N42/SUM(N42:Q42)</f>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="O89">
-        <f>O42/SUM(N42:Q42)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P89">
-        <f>P42/SUM(N42:Q42)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f>Q42/SUM(N42:Q42)</f>
+        <f t="shared" si="27"/>
         <v>0.8</v>
       </c>
     </row>
@@ -5995,19 +6392,19 @@
         <v>42</v>
       </c>
       <c r="B90">
-        <f>B43/SUM(B43:E43)</f>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="C90">
-        <f>C43/SUM(B43:E43)</f>
+        <f t="shared" si="17"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="D90">
-        <f>D43/SUM(B43:E43)</f>
+        <f t="shared" si="18"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="E90">
-        <f>E43/SUM(B43:E43)</f>
+        <f t="shared" si="19"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="J90">
@@ -6027,19 +6424,19 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <f>N43/SUM(N43:Q43)</f>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="O90">
-        <f>O43/SUM(N43:Q43)</f>
+        <f t="shared" si="25"/>
         <v>0.375</v>
       </c>
       <c r="P90">
-        <f>P43/SUM(N43:Q43)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f>Q43/SUM(N43:Q43)</f>
+        <f t="shared" si="27"/>
         <v>0.125</v>
       </c>
     </row>
@@ -6101,19 +6498,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92" si="16">MEDIAN(J50:J91)</f>
+        <f t="shared" ref="J92" si="32">MEDIAN(J50:J91)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="K92">
-        <f t="shared" ref="K92" si="17">MEDIAN(K50:K91)</f>
+        <f t="shared" ref="K92" si="33">MEDIAN(K50:K91)</f>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" ref="L92" si="18">MEDIAN(L50:L91)</f>
+        <f t="shared" ref="L92" si="34">MEDIAN(L50:L91)</f>
         <v>0</v>
       </c>
       <c r="M92">
-        <f t="shared" ref="M92" si="19">MEDIAN(M50:M91)</f>
+        <f t="shared" ref="M92" si="35">MEDIAN(M50:M91)</f>
         <v>0.25</v>
       </c>
       <c r="N92">
@@ -6170,19 +6567,19 @@
         <v>0.39387755102040817</v>
       </c>
       <c r="J93">
-        <f t="shared" ref="C93:Q93" si="20">AVERAGE(J50:J91)</f>
+        <f t="shared" ref="J93:M93" si="36">AVERAGE(J50:J91)</f>
         <v>0.37772108843537422</v>
       </c>
       <c r="K93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>0.16187641723356011</v>
       </c>
       <c r="L93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>0.33540249433106578</v>
       </c>
       <c r="N93">
@@ -6239,19 +6636,19 @@
         <v>0.3997425374036549</v>
       </c>
       <c r="J94">
-        <f t="shared" ref="C94:Q94" si="21">STDEV(J50:J91)</f>
+        <f t="shared" ref="J94:M94" si="37">STDEV(J50:J91)</f>
         <v>0.32603628248043098</v>
       </c>
       <c r="K94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>0.20578648802260249</v>
       </c>
       <c r="L94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>0.18673851695013841</v>
       </c>
       <c r="M94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>0.31505577135384821</v>
       </c>
       <c r="N94">
@@ -6322,6 +6719,3737 @@
       </c>
       <c r="Q95">
         <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.219</v>
+      </c>
+      <c r="E2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM(B2:E2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>(B6/F6)*F2</f>
+        <v>0.28842789302674332</v>
+      </c>
+      <c r="I2">
+        <f>(C6/F6)*F2</f>
+        <v>0.14621344663834043</v>
+      </c>
+      <c r="J2">
+        <f>(D6/F6*F2)</f>
+        <v>0.18720319920019998</v>
+      </c>
+      <c r="K2">
+        <f>(E6/F6*F2)</f>
+        <v>0.37815546113471643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUM(B3:E3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>(B6/F6)*F3</f>
+        <v>0.28842789302674332</v>
+      </c>
+      <c r="I3">
+        <f>(C6/F6)*F3</f>
+        <v>0.14621344663834043</v>
+      </c>
+      <c r="J3">
+        <f>(D6/F6*F3)</f>
+        <v>0.18720319920019998</v>
+      </c>
+      <c r="K3">
+        <f>(E6/F6*F3)</f>
+        <v>0.37815546113471643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.378</v>
+      </c>
+      <c r="C4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.125</v>
+      </c>
+      <c r="E4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <f>SUM(B4:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>(B6/F6)*F4</f>
+        <v>0.28842789302674332</v>
+      </c>
+      <c r="I4">
+        <f>(C6/F6)*F4</f>
+        <v>0.14621344663834043</v>
+      </c>
+      <c r="J4">
+        <f>(D6/F6*F4)</f>
+        <v>0.18720319920019998</v>
+      </c>
+      <c r="K4">
+        <f>(E6/F6*F4)</f>
+        <v>0.37815546113471643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.18</v>
+      </c>
+      <c r="D5">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.379</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(B5:E5)</f>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="H5">
+        <f>(B6/F6)*F5</f>
+        <v>0.28871632091977001</v>
+      </c>
+      <c r="I5">
+        <f>(C6/F6)*F5</f>
+        <v>0.14635966008497875</v>
+      </c>
+      <c r="J5">
+        <f>(D6/F6*F5)</f>
+        <v>0.18739040239940016</v>
+      </c>
+      <c r="K5">
+        <f>(E6/F6*F5)</f>
+        <v>0.37853361659585111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="2">
+        <f>SUM(B2:B5)</f>
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(C2:C5)</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(D2:D5)</f>
+        <v>0.749</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUM(E2:E5)</f>
+        <v>1.5130000000000001</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>4.0009999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9">
+        <f t="shared" ref="H9:K12" si="0">((H2-B2)^2)/H2</f>
+        <v>2.5302424222583865E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4.9073423648361295E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5.4007439265016735E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.9056428928128054E-3</v>
+      </c>
+      <c r="L9">
+        <f>SUM(H9:K9)</f>
+        <v>3.7516153406734476E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7.2476215651459E-5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3.9726096210989999E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.6630500935847455E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6.6387884786898977E-4</v>
+      </c>
+      <c r="L10">
+        <f>SUM(H10:K10)</f>
+        <v>5.70929522103579E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.7816873962618532E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.7044620229557962E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2.0668653138784746E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.9249422979681578E-3</v>
+      </c>
+      <c r="L11">
+        <f>SUM(H11:K11)</f>
+        <v>5.5114931422327235E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.6314497959237969E-4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>7.7321337651447431E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3.4402644198896761E-3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>5.7462130212267182E-7</v>
+      </c>
+      <c r="L12">
+        <f>SUM(H12:K12)</f>
+        <v>1.143611778592892E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="L13">
+        <f>SUM(L9:L12)</f>
+        <v>0.16116015482534854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="L15">
+        <f>_xlfn.CHISQ.DIST(L13,9,TRUE)</f>
+        <v>2.14075783970081E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18">
+      <c r="B19">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>57</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f>SUM(B45:E45)</f>
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <f>S45*(1/4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="W45">
+        <f>(U45-B45)^2/U45</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ref="S46:S51" si="1">SUM(B46:E46)</f>
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ref="U46:U51" si="2">S46*(1/4)</f>
+        <v>1.25</v>
+      </c>
+      <c r="W46">
+        <f t="shared" ref="W46:W51" si="3">(U46-B46)^2/U46</f>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S86" si="4">SUM(B53:E53)</f>
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53:U86" si="5">S53*(1/4)</f>
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W86" si="6">(U53-B53)^2/U53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="6"/>
+        <v>2.8928571428571428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>18</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="6"/>
+        <v>0.32142857142857145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>23</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>24</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>7</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="1">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>31</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="6"/>
+        <v>6.0357142857142856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="6"/>
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="6"/>
+        <v>0.32142857142857145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>3</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85">
+        <v>42</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="6"/>
+        <v>0.32142857142857145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="W87">
+        <f>SUM(W45:W86)</f>
+        <v>52.985714285714288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.219</v>
+      </c>
+      <c r="F3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.123</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>-0.255</v>
+      </c>
+      <c r="N3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.251</v>
+      </c>
+      <c r="P3">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.157</v>
+      </c>
+      <c r="O4">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0.378</v>
+      </c>
+      <c r="D5">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.125</v>
+      </c>
+      <c r="F5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.187</v>
+      </c>
+      <c r="P5">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.18</v>
+      </c>
+      <c r="E6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.379</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>0.37</v>
+      </c>
+      <c r="J6">
+        <v>0.159</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>0.2</v>
+      </c>
+      <c r="N6">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.185</v>
+      </c>
+      <c r="P6">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <f>(C3-I3)/(J3/SQRT(42))</f>
+        <v>-3.3720927211227889</v>
+      </c>
+      <c r="D10" s="4">
+        <f>(D3-I3)/(J3/SQRT(42))</f>
+        <v>-4.9527611841490975</v>
+      </c>
+      <c r="E10" s="4">
+        <f>(E3-I3)/(J3/SQRT(42))</f>
+        <v>-2.5290695408420927</v>
+      </c>
+      <c r="F10" s="4">
+        <f>(F3-I3)/(J3/SQRT(42))</f>
+        <v>7.2710749299210145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <f>(C3-I3)/(SQRT((J3*J3)/42 +(M3*M3)/196))</f>
+        <v>-2.4329597933469174</v>
+      </c>
+      <c r="J10">
+        <f>(D3-I4)/(SQRT((J4*J4)/42 +(N3*N3)/196))</f>
+        <v>1.8448804631487361</v>
+      </c>
+      <c r="K10">
+        <f>(E3-I5)/(SQRT((J5*J5)/42 +(O3*O3)/196))</f>
+        <v>-0.53798737560390275</v>
+      </c>
+      <c r="L10">
+        <f>(F3-I6)/(SQRT((J6*J6)/42 +(P3*P3)/196))</f>
+        <v>1.1406396615735386</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <f>(C4-I4)/(J4/SQRT(42))</f>
+        <v>10.64693114738434</v>
+      </c>
+      <c r="D11" s="4">
+        <f>(D4-I4)/(J4/SQRT(42))</f>
+        <v>-4.1000604418498705</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E13" si="0">(E4-I4)/(J4/SQRT(42))</f>
+        <v>7.3404307910537998</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(F4-I4)/(J4/SQRT(42))</f>
+        <v>17.326061867172033</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <f>(C4-I3)/(SQRT((J3*J3)/42 +(M4*M4)/114))</f>
+        <v>0.65942097326687454</v>
+      </c>
+      <c r="J11">
+        <f>(D4-I4)/(SQRT((J4*J4)/42 +(N4*N4)/114))</f>
+        <v>-2.9394585263984427</v>
+      </c>
+      <c r="K11">
+        <f>(E4-I5)/(SQRT((J5*J5)/42 +(O4*O4)/114))</f>
+        <v>0.38304514019383368</v>
+      </c>
+      <c r="L11">
+        <f>(F4-I6)/(SQRT((J6*J6)/42 +(P4*P4)/114))</f>
+        <v>0.53592830252148427</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4">
+        <f>(C5-I5)/(J5/SQRT(42))</f>
+        <v>11.077545147278551</v>
+      </c>
+      <c r="D12" s="4">
+        <f>(D5-I5)/(J5/SQRT(42))</f>
+        <v>-5.1996640487225863</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.9878896980375966</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(F5-I5)/(J5/SQRT(42))</f>
+        <v>7.8371747980746225</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <f>(C5-I3)/(SQRT((J3*J3)/42 +(M5*M5)/176))</f>
+        <v>3.5749669337968433</v>
+      </c>
+      <c r="J12">
+        <f>(D5-I4)/(SQRT((J4*J4)/42 +(N5*N5)/176))</f>
+        <v>1.3841203467133447</v>
+      </c>
+      <c r="K12">
+        <f>(E5-I5)/(SQRT((J5*J5)/42 +(O5*O5)/176))</f>
+        <v>-5.4754028210382542</v>
+      </c>
+      <c r="L12">
+        <f>(F5-I6)/(SQRT((J6*J6)/42 +(P5*P5)/176))</f>
+        <v>-1.0251167877862353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4">
+        <f>(C6-I6)/(J6/SQRT(42))</f>
+        <v>-3.6683437915516177</v>
+      </c>
+      <c r="D13" s="4">
+        <f>(D6-I6)/(J6/SQRT(42))</f>
+        <v>-7.7442813377200848</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.4779500960304084</v>
+      </c>
+      <c r="F13" s="4">
+        <f>(F6-I6)/(J6/SQRT(42))</f>
+        <v>0.3668343791551622</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <f>(C6-I3)/(SQRT((J3*J3)/42 +(M6*M6)/251))</f>
+        <v>0.57031981659814557</v>
+      </c>
+      <c r="J13">
+        <f>(D6-I4)/(SQRT((J4*J4)/42 +(N6*N6)/251))</f>
+        <v>2.2755268799779156</v>
+      </c>
+      <c r="K13">
+        <f>(E6-I5)/(SQRT((J5*J5)/42 +(O6*O6)/251))</f>
+        <v>-3.9035428538265458</v>
+      </c>
+      <c r="L13">
+        <f>(F6-I6)/(SQRT((J6*J6)/42 +(P6*P6)/251))</f>
+        <v>0.29076043454061573</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J16">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="K16">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="L16">
+        <v>0.87290000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>0.74539999999999995</v>
+      </c>
+      <c r="J17">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.70189999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>1E-4</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>0.7157</v>
+      </c>
+      <c r="J19">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.61409999999999998</v>
       </c>
     </row>
   </sheetData>
